--- a/Messungen2.xlsx
+++ b/Messungen2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tudoitmc-my.sharepoint.com/personal/celina_kortmann_study_tu-dortmund_de/Documents/Dokumente/Studium/6. Semester/FP/V46----Faraday-Effekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{839E9FF2-AAAA-4B92-8723-09DFF300357A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F7316FF-1657-4B5A-88D8-5B0B5EDAAED0}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{839E9FF2-AAAA-4B92-8723-09DFF300357A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23ED5182-FA86-4A23-99F5-3B7518C22E9C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{8B3A18A0-18D8-4BA4-B1D9-E1C9112A0375}"/>
   </bookViews>
@@ -36,15 +36,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
-  <si>
-    <t xml:space="preserve"> GaAs N=2.8*10^18/cm^3, D=1.36 mm</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>rad minuten</t>
   </si>
   <si>
     <t>Frequenzfilter in micrometer</t>
+  </si>
+  <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GaAs N=2.8*10^18/cm^3, D=1.296 mm</t>
   </si>
 </sst>
 </file>
@@ -101,6 +104,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -422,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F29C91-5CD4-4CB9-8AC7-C9140F16D4DE}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -436,16 +443,19 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
         <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -478,8 +488,8 @@
         <v>88.683333333333337</v>
       </c>
       <c r="G3">
-        <f>-(C3-F3)*PI()/(2*5.11*10^(-3)*180)</f>
-        <v>18.159166059562665</v>
+        <f>-(C3-F3)*PI()/(2*1.296*10^(-3)*180)</f>
+        <v>71.599798274973168</v>
       </c>
       <c r="H3">
         <v>1.06</v>
@@ -507,8 +517,8 @@
         <v>86.216666666666669</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G11" si="2">-(C4-F4)*PI()/(2*5.11*10^(-3)*180)</f>
-        <v>13.718993794215043</v>
+        <f t="shared" ref="G4:G11" si="2">-(C4-F4)*PI()/(2*1.296*10^(-3)*180)</f>
+        <v>54.092637568239873</v>
       </c>
       <c r="H4">
         <v>1.29</v>
@@ -537,7 +547,7 @@
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
-        <v>8.3680169616166555</v>
+        <v>32.994264408843456</v>
       </c>
       <c r="H5">
         <v>1.45</v>
@@ -566,7 +576,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>17.162973564132098</v>
+        <v>67.671909654872707</v>
       </c>
       <c r="H6">
         <v>1.72</v>
@@ -595,7 +605,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
-        <v>18.529180415008277</v>
+        <v>73.058728333867521</v>
       </c>
       <c r="H7">
         <v>1.96</v>
@@ -624,7 +634,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
-        <v>20.293864264056683</v>
+        <v>80.016702460902522</v>
       </c>
       <c r="H8" s="1">
         <v>2.1560000000000001</v>
@@ -653,7 +663,7 @@
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
-        <v>20.379252192236468</v>
+        <v>80.353378628339783</v>
       </c>
       <c r="H9">
         <v>2.34</v>
@@ -682,7 +692,7 @@
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>22.997815323082484</v>
+        <v>90.678114429746529</v>
       </c>
       <c r="H10">
         <v>2.5099999999999998</v>
@@ -711,7 +721,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>31.792771925597929</v>
+        <v>125.3557596757758</v>
       </c>
       <c r="H11">
         <v>2.65</v>
